--- a/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:08:55+00:00</t>
+    <t>2023-07-12T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:12:47+00:00</t>
+    <t>2023-07-12T08:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:15:17+00:00</t>
+    <t>2023-07-12T08:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/ig/nr-change-contained/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:17:11+00:00</t>
+    <t>2023-07-12T08:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
